--- a/templates/Soal Template.xlsx
+++ b/templates/Soal Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Info Soal" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t xml:space="preserve">Kode</t>
   </si>
@@ -83,15 +83,6 @@
   </si>
   <si>
     <t xml:space="preserve">Pilihan Ganda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bobot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jenis Ujian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNBK</t>
   </si>
   <si>
     <t xml:space="preserve">Acak Opsi</t>
@@ -298,7 +289,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -321,10 +312,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -434,16 +421,15 @@
   </sheetPr>
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="1.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="41.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -517,14 +503,14 @@
       <c r="J4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="6" t="n">
-        <v>100</v>
+      <c r="C5" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -534,15 +520,6 @@
       <c r="J5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>12</v>
-      </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -551,15 +528,6 @@
       <c r="J6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>14</v>
-      </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -571,7 +539,7 @@
   <mergeCells count="1">
     <mergeCell ref="E1:J7"/>
   </mergeCells>
-  <dataValidations count="4">
+  <dataValidations count="3">
     <dataValidation allowBlank="true" operator="equal" prompt="Kode Mata Pelajaran harus diisi dan sesuai dengan mata pelajaran yang telah diinput" promptTitle="Kode Mata Pelajaran" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C3" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
@@ -580,11 +548,7 @@
       <formula1>"Pilihan Ganda,Essay"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C5" type="decimal">
-      <formula1>0</formula1>
-      <formula2>100</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C7" type="list">
+    <dataValidation allowBlank="false" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C5" type="list">
       <formula1>"Tidak,Ya"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -606,143 +570,143 @@
   </sheetPr>
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="10" width="5.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="11" width="55.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="10" width="16.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="11" width="15.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="11" width="13.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="11" width="12.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="11" width="13.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="11" width="18.69"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="26" min="9" style="11" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="11" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="9" width="5.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="10" width="55.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="9" width="16.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="10" width="15.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="10" width="13.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="10" width="12.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="10" width="13.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="10" width="18.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="9" style="10" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="27" style="10" width="8.67"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="12" t="s">
+    <row r="1" s="11" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="12" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="180.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="C2" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="E2" s="12" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="180.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="10" t="n">
+      <c r="G2" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="56.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="56.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="11" t="s">
+      <c r="F3" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="10" t="n">
+      <c r="G3" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="80.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="13" t="s">
+      <c r="D4" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="E4" s="12" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="80.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="11" t="s">
+      <c r="F4" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="10" t="n">
+      <c r="G4" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="135.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="13" t="s">
+      <c r="B5" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="C5" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="E5" s="10" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="135.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="11" t="s">
+      <c r="F5" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="10" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" s="11" t="s">
+      <c r="G5" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="H5" s="12" t="s">
         <v>40</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/templates/Soal Template.xlsx
+++ b/templates/Soal Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Info Soal" sheetId="1" state="visible" r:id="rId2"/>
@@ -421,11 +421,11 @@
   </sheetPr>
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="1.8"/>
@@ -570,7 +570,7 @@
   </sheetPr>
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
     </sheetView>
   </sheetViews>
